--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1071982.470058061</v>
+        <v>1067085.233470114</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371836</v>
+        <v>23767730.23371835</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737296</v>
+        <v>8186089.907737302</v>
       </c>
     </row>
     <row r="9">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>210.4523473498473</v>
+        <v>393.3106296421622</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.6370840092685</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.9848119816685</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>62.82885394936949</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
         <v>153.1433946664671</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74.12777145960861</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>42.12580470545883</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>91.46964733053944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>154.4160042839562</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
         <v>59.00565898536429</v>
@@ -1742,13 +1742,13 @@
         <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
-        <v>185.7581009809256</v>
+        <v>172.7933316440411</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -1770,13 +1770,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2418693448225</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>212.8033507548118</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371686</v>
+        <v>42.40999217295863</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>45.35216945679051</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.1433946664671</v>
@@ -1988,10 +1988,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>131.4195907998933</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.97601446526956</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2010,10 +2010,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>26.67266081855767</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>167.8355178356165</v>
@@ -2061,13 +2061,13 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>46.24122215988442</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>25.08800571068835</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>121.7506011163232</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.7777180703237</v>
+        <v>45.90191961362746</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>36.97042707739834</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2250,10 +2250,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>42.27454428063915</v>
       </c>
       <c r="T22" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>116.733848818506</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T23" t="n">
-        <v>210.6370840092685</v>
+        <v>67.18634599105901</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.98789004652775</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H24" t="n">
-        <v>59.00565898536429</v>
+        <v>59.00565898536446</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
-        <v>42.32399195596837</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>90.59319765835502</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>351.5217790275042</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>131.7792541050477</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2651,7 +2651,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H27" t="n">
-        <v>59.00565898536446</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>86.37808034979749</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.89379585742255</v>
+        <v>93.24448886277473</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>134.3959392708114</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>264.0061848222489</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>133.1679626739136</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>136.8344310959107</v>
       </c>
       <c r="U31" t="n">
         <v>279.9179208068699</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.5760172510345</v>
+        <v>245.4135389336772</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>76.37895211254039</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>205.0761719060269</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>102.5032260622506</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>361.8423956625545</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3350,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>48.99448256262374</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276089</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.24122215988373</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.8355178356165</v>
@@ -3480,19 +3480,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>18.12219966782462</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>181.2538364356938</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>327.0155094612374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,13 +3590,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>49.4616212584206</v>
       </c>
       <c r="F39" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.0595739640322</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>108.5157864012767</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>21.59011542904801</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>246.4361216642805</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.0863286088161</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>152.0539149786678</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.7666774228059</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>1.252920009953275</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>57.04249667437701</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>329.1139743248643</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
@@ -4033,16 +4033,16 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>171.37648832095</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -4067,10 +4067,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7777180703237</v>
+        <v>64.72714977671694</v>
       </c>
       <c r="H45" t="n">
         <v>59.00565898536429</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
-        <v>100.5924973722365</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>137.7592713134155</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
         <v>139.5954175304433</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>28.89610744291077</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1488.153676578333</v>
+        <v>840.686938437575</v>
       </c>
       <c r="C11" t="n">
-        <v>1275.575547942124</v>
+        <v>443.4034741525626</v>
       </c>
       <c r="D11" t="n">
-        <v>871.1116180351842</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="E11" t="n">
-        <v>456.7714025520808</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J11" t="n">
         <v>142.5703854689898</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446589</v>
+        <v>323.229055744659</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064788</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O11" t="n">
         <v>1390.269714189818</v>
@@ -5062,31 +5062,31 @@
         <v>1601.546999092374</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="U11" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965926</v>
       </c>
       <c r="V11" t="n">
-        <v>1488.153676578333</v>
+        <v>1224.447239302406</v>
       </c>
       <c r="W11" t="n">
-        <v>1488.153676578333</v>
+        <v>840.686938437575</v>
       </c>
       <c r="X11" t="n">
-        <v>1488.153676578333</v>
+        <v>840.686938437575</v>
       </c>
       <c r="Y11" t="n">
-        <v>1488.153676578333</v>
+        <v>840.686938437575</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.9219942215105</v>
+        <v>445.5543329492904</v>
       </c>
       <c r="C12" t="n">
-        <v>487.9269229704562</v>
+        <v>445.5543329492904</v>
       </c>
       <c r="D12" t="n">
-        <v>371.0297651898487</v>
+        <v>328.6571751686828</v>
       </c>
       <c r="E12" t="n">
-        <v>250.5369491821766</v>
+        <v>208.1643591610108</v>
       </c>
       <c r="F12" t="n">
-        <v>141.5770693646812</v>
+        <v>99.20447934351535</v>
       </c>
       <c r="G12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J12" t="n">
-        <v>335.4150222482922</v>
+        <v>170.2194754076015</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7902645623569</v>
+        <v>297.5947177216662</v>
       </c>
       <c r="L12" t="n">
-        <v>652.8226261026791</v>
+        <v>487.6270792619885</v>
       </c>
       <c r="M12" t="n">
-        <v>882.4209603825697</v>
+        <v>717.225413541879</v>
       </c>
       <c r="N12" t="n">
-        <v>1123.931580570561</v>
+        <v>958.73603372987</v>
       </c>
       <c r="O12" t="n">
-        <v>1524.712592344458</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158656</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q12" t="n">
         <v>1775.234255540019</v>
@@ -5147,25 +5147,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T12" t="n">
-        <v>1632.359227645523</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U12" t="n">
-        <v>1435.084340061818</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V12" t="n">
-        <v>1221.372813054851</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W12" t="n">
-        <v>1008.13964479118</v>
+        <v>921.5853070821541</v>
       </c>
       <c r="X12" t="n">
-        <v>831.813662930073</v>
+        <v>745.259325221047</v>
       </c>
       <c r="Y12" t="n">
-        <v>672.411703293903</v>
+        <v>585.857365584877</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>995.0035439350083</v>
+        <v>373.1172508246713</v>
       </c>
       <c r="C13" t="n">
-        <v>823.9101714967248</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="D13" t="n">
-        <v>664.4155268196348</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="E13" t="n">
-        <v>503.5047116879543</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F13" t="n">
-        <v>338.8735857985455</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J13" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K13" t="n">
-        <v>175.3063357648813</v>
+        <v>316.5851657192591</v>
       </c>
       <c r="L13" t="n">
-        <v>576.1823318821755</v>
+        <v>403.4820506015302</v>
       </c>
       <c r="M13" t="n">
-        <v>834.2525509827994</v>
+        <v>841.3885860026091</v>
       </c>
       <c r="N13" t="n">
-        <v>928.1651249726434</v>
+        <v>935.3011599924531</v>
       </c>
       <c r="O13" t="n">
         <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
-        <v>1642.118498692662</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q13" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S13" t="n">
-        <v>1787.049525288419</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T13" t="n">
-        <v>1551.63466354788</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U13" t="n">
-        <v>1268.889288995486</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="V13" t="n">
-        <v>995.0035439350083</v>
+        <v>1066.44783585457</v>
       </c>
       <c r="W13" t="n">
-        <v>995.0035439350083</v>
+        <v>1023.896517970268</v>
       </c>
       <c r="X13" t="n">
-        <v>995.0035439350083</v>
+        <v>785.552655829951</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0035439350083</v>
+        <v>560.8169572187157</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1281.236208721914</v>
+        <v>1376.82834562393</v>
       </c>
       <c r="C14" t="n">
-        <v>871.1116180351842</v>
+        <v>966.7037549372</v>
       </c>
       <c r="D14" t="n">
-        <v>871.1116180351842</v>
+        <v>966.7037549372</v>
       </c>
       <c r="E14" t="n">
-        <v>456.7714025520808</v>
+        <v>552.3635394540967</v>
       </c>
       <c r="F14" t="n">
-        <v>35.74099050576839</v>
+        <v>131.3331274077842</v>
       </c>
       <c r="G14" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H14" t="n">
-        <v>35.74099050576839</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I14" t="n">
         <v>35.74099050576839</v>
@@ -5311,19 +5311,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="U14" t="n">
-        <v>1631.073763385433</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="X14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="Y14" t="n">
-        <v>1281.236208721914</v>
+        <v>1787.049525288419</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>455.1947750977179</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C15" t="n">
-        <v>321.1997038466636</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D15" t="n">
-        <v>204.302546066056</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E15" t="n">
-        <v>204.302546066056</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F15" t="n">
-        <v>95.3426662485606</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G15" t="n">
         <v>95.3426662485606</v>
@@ -5357,28 +5357,28 @@
         <v>54.34778796170229</v>
       </c>
       <c r="J15" t="n">
-        <v>354.0218197042262</v>
+        <v>205.9315600363249</v>
       </c>
       <c r="K15" t="n">
-        <v>651.6352588491873</v>
+        <v>333.3068023503895</v>
       </c>
       <c r="L15" t="n">
-        <v>841.6676203895096</v>
+        <v>523.3391638907118</v>
       </c>
       <c r="M15" t="n">
-        <v>1071.2659546694</v>
+        <v>752.9374981706023</v>
       </c>
       <c r="N15" t="n">
-        <v>1312.776574857391</v>
+        <v>994.4481183585933</v>
       </c>
       <c r="O15" t="n">
-        <v>1524.712592344458</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158656</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
@@ -5390,19 +5390,19 @@
         <v>1545.804889936498</v>
       </c>
       <c r="U15" t="n">
-        <v>1358.170444501219</v>
+        <v>1371.266171104133</v>
       </c>
       <c r="V15" t="n">
-        <v>1144.458917494253</v>
+        <v>1157.554644097167</v>
       </c>
       <c r="W15" t="n">
-        <v>931.2257492305819</v>
+        <v>1157.554644097167</v>
       </c>
       <c r="X15" t="n">
-        <v>754.8997673694746</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="Y15" t="n">
-        <v>595.4978077333046</v>
+        <v>821.8267025998895</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.3585991618595</v>
+        <v>832.8764208952042</v>
       </c>
       <c r="C16" t="n">
-        <v>374.265226723576</v>
+        <v>661.7830484569207</v>
       </c>
       <c r="D16" t="n">
-        <v>374.265226723576</v>
+        <v>502.2884037798307</v>
       </c>
       <c r="E16" t="n">
-        <v>213.3544115918955</v>
+        <v>341.3775886481502</v>
       </c>
       <c r="F16" t="n">
-        <v>213.3544115918955</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G16" t="n">
-        <v>213.3544115918955</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H16" t="n">
-        <v>72.34893933892243</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I16" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J16" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K16" t="n">
-        <v>381.5865293505955</v>
+        <v>269.2995510042442</v>
       </c>
       <c r="L16" t="n">
-        <v>782.4625254678897</v>
+        <v>670.1755471215383</v>
       </c>
       <c r="M16" t="n">
-        <v>1095.150034455917</v>
+        <v>763.1157330083317</v>
       </c>
       <c r="N16" t="n">
         <v>1189.062608445761</v>
@@ -5460,28 +5460,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.333580915048</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.588206362654</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="V16" t="n">
-        <v>783.7024613021761</v>
+        <v>1336.681783997565</v>
       </c>
       <c r="W16" t="n">
-        <v>783.7024613021761</v>
+        <v>1057.61211950644</v>
       </c>
       <c r="X16" t="n">
-        <v>545.3585991618595</v>
+        <v>1057.61211950644</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.3585991618595</v>
+        <v>832.8764208952042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>853.5280648392925</v>
+        <v>1274.558476885605</v>
       </c>
       <c r="C17" t="n">
-        <v>443.4034741525626</v>
+        <v>864.4338861988751</v>
       </c>
       <c r="D17" t="n">
-        <v>38.93954424562315</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="E17" t="n">
-        <v>38.93954424562315</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F17" t="n">
         <v>38.93954424562315</v>
@@ -5512,55 +5512,55 @@
         <v>38.93954424562315</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J17" t="n">
         <v>142.5703854689898</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446594</v>
       </c>
       <c r="L17" t="n">
-        <v>562.2973247064785</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152972</v>
+        <v>841.1329596152979</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O17" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.918407900826</v>
+        <v>1744.211149356138</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.918407900826</v>
+        <v>1531.446418033644</v>
       </c>
       <c r="U17" t="n">
-        <v>1655.10813572225</v>
+        <v>1274.558476885605</v>
       </c>
       <c r="V17" t="n">
-        <v>1655.10813572225</v>
+        <v>1274.558476885605</v>
       </c>
       <c r="W17" t="n">
-        <v>1655.10813572225</v>
+        <v>1274.558476885605</v>
       </c>
       <c r="X17" t="n">
-        <v>1254.464737891202</v>
+        <v>1274.558476885605</v>
       </c>
       <c r="Y17" t="n">
-        <v>853.5280648392925</v>
+        <v>1274.558476885605</v>
       </c>
     </row>
     <row r="18">
@@ -5582,61 +5582,61 @@
         <v>204.302546066056</v>
       </c>
       <c r="F18" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="G18" t="n">
-        <v>95.34266624856059</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J18" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>1123.931580570561</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.867598057628</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1498.135044871826</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1687.264539063037</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061818</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345825</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5853070821539</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X18" t="n">
-        <v>745.2593252210468</v>
+        <v>875.3925833771465</v>
       </c>
       <c r="Y18" t="n">
         <v>715.9906237409765</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>645.152801357374</v>
+        <v>366.3290076211418</v>
       </c>
       <c r="C19" t="n">
-        <v>474.0594289190905</v>
+        <v>195.2356351828584</v>
       </c>
       <c r="D19" t="n">
-        <v>314.5647842420005</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="E19" t="n">
-        <v>287.6227026070937</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="F19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="G19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H19" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J19" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>403.4820506015302</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>841.3885860026091</v>
+        <v>1204.464452632909</v>
       </c>
       <c r="N19" t="n">
-        <v>935.3011599924531</v>
+        <v>1630.411328070339</v>
       </c>
       <c r="O19" t="n">
-        <v>1321.756545649937</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P19" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R19" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.588206362654</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V19" t="n">
-        <v>1057.588206362654</v>
+        <v>825.472717838426</v>
       </c>
       <c r="W19" t="n">
-        <v>1057.588206362654</v>
+        <v>825.472717838426</v>
       </c>
       <c r="X19" t="n">
-        <v>1057.588206362654</v>
+        <v>778.7644126264215</v>
       </c>
       <c r="Y19" t="n">
-        <v>832.8525077514183</v>
+        <v>554.0287140151862</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>471.2070011022845</v>
+        <v>443.4034741525626</v>
       </c>
       <c r="C20" t="n">
-        <v>61.08241041555459</v>
+        <v>443.4034741525626</v>
       </c>
       <c r="D20" t="n">
-        <v>61.08241041555459</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="E20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446591</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064788</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N20" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O20" t="n">
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
@@ -5782,22 +5782,22 @@
         <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1488.153676578333</v>
+        <v>1577.938002732823</v>
       </c>
       <c r="U20" t="n">
-        <v>1231.265735430293</v>
+        <v>1577.938002732823</v>
       </c>
       <c r="V20" t="n">
-        <v>881.4281807667739</v>
+        <v>1228.100448069304</v>
       </c>
       <c r="W20" t="n">
-        <v>881.4281807667739</v>
+        <v>844.3401472044725</v>
       </c>
       <c r="X20" t="n">
-        <v>881.4281807667739</v>
+        <v>844.3401472044725</v>
       </c>
       <c r="Y20" t="n">
-        <v>881.4281807667739</v>
+        <v>443.4034741525626</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>621.9219942215105</v>
+        <v>445.5543329492906</v>
       </c>
       <c r="C21" t="n">
-        <v>487.9269229704562</v>
+        <v>311.5592616982363</v>
       </c>
       <c r="D21" t="n">
-        <v>371.0297651898487</v>
+        <v>311.5592616982363</v>
       </c>
       <c r="E21" t="n">
-        <v>250.5369491821766</v>
+        <v>191.0664456905643</v>
       </c>
       <c r="F21" t="n">
-        <v>141.5770693646812</v>
+        <v>82.10656587306886</v>
       </c>
       <c r="G21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J21" t="n">
-        <v>335.4150222482922</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7902645623569</v>
+        <v>237.7286580436576</v>
       </c>
       <c r="L21" t="n">
-        <v>841.6676203895091</v>
+        <v>427.7610195839799</v>
       </c>
       <c r="M21" t="n">
-        <v>1071.2659546694</v>
+        <v>657.3593538638704</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.776574857391</v>
+        <v>898.8699740518614</v>
       </c>
       <c r="O21" t="n">
-        <v>1524.712592344458</v>
+        <v>1110.805991538929</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.980039158656</v>
+        <v>1273.073438353127</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579393</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936497</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352791</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V21" t="n">
-        <v>1311.186136618046</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W21" t="n">
-        <v>1097.952968354374</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X21" t="n">
-        <v>921.6269864932672</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y21" t="n">
-        <v>762.2250268570972</v>
+        <v>585.8573655848772</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.2398227528224</v>
+        <v>858.1538365228505</v>
       </c>
       <c r="C22" t="n">
-        <v>356.1464503145389</v>
+        <v>687.060464084567</v>
       </c>
       <c r="D22" t="n">
-        <v>196.6518056374489</v>
+        <v>527.5658194074771</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576838</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576838</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J22" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K22" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L22" t="n">
-        <v>522.6199757875572</v>
+        <v>468.4834142328665</v>
       </c>
       <c r="M22" t="n">
-        <v>960.5265111886362</v>
+        <v>906.3899496339454</v>
       </c>
       <c r="N22" t="n">
-        <v>1054.43908517848</v>
+        <v>1332.336825071375</v>
       </c>
       <c r="O22" t="n">
-        <v>1448.030505855774</v>
+        <v>1410.853486329929</v>
       </c>
       <c r="P22" t="n">
-        <v>1768.392458898498</v>
+        <v>1731.215439372653</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1744.347965408986</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915047</v>
+        <v>1508.933103668447</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1508.933103668447</v>
       </c>
       <c r="V22" t="n">
-        <v>939.6752277581021</v>
+        <v>1508.933103668447</v>
       </c>
       <c r="W22" t="n">
-        <v>939.6752277581021</v>
+        <v>1508.933103668447</v>
       </c>
       <c r="X22" t="n">
-        <v>939.6752277581021</v>
+        <v>1270.58924152813</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.9395291468668</v>
+        <v>1045.853542916895</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>450.6812819479067</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="C23" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="D23" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="E23" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="F23" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G23" t="n">
-        <v>40.5566912611768</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H23" t="n">
         <v>40.5566912611768</v>
@@ -5989,25 +5989,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M23" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N23" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O23" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P23" t="n">
-        <v>1606.362699847782</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q23" t="n">
         <v>1981.482516594539</v>
@@ -6019,22 +6019,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T23" t="n">
-        <v>1728.938714348754</v>
+        <v>1873.838449720683</v>
       </c>
       <c r="U23" t="n">
-        <v>1728.938714348754</v>
+        <v>1873.838449720683</v>
       </c>
       <c r="V23" t="n">
-        <v>1636.021653695695</v>
+        <v>1524.000895057163</v>
       </c>
       <c r="W23" t="n">
-        <v>1252.261352830864</v>
+        <v>1140.240594192332</v>
       </c>
       <c r="X23" t="n">
-        <v>851.6179549998167</v>
+        <v>739.5971963612844</v>
       </c>
       <c r="Y23" t="n">
-        <v>450.6812819479067</v>
+        <v>739.5971963612844</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.3442994686571</v>
+        <v>552.344299468657</v>
       </c>
       <c r="D24" t="n">
         <v>435.4471416880494</v>
@@ -6059,37 +6059,37 @@
         <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039692</v>
       </c>
       <c r="H24" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="I24" t="n">
-        <v>40.5566912611768</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>96.56231902906744</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>223.9375613431321</v>
+        <v>804.4505801426267</v>
       </c>
       <c r="L24" t="n">
-        <v>413.9699228834544</v>
+        <v>994.482941682949</v>
       </c>
       <c r="M24" t="n">
-        <v>643.5682571633449</v>
+        <v>1224.08127596284</v>
       </c>
       <c r="N24" t="n">
-        <v>923.9869682149514</v>
+        <v>1465.591896150831</v>
       </c>
       <c r="O24" t="n">
-        <v>1425.876022572014</v>
+        <v>1677.527913637898</v>
       </c>
       <c r="P24" t="n">
-        <v>1927.765076929077</v>
+        <v>1839.795360452096</v>
       </c>
       <c r="Q24" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>287.3019221501834</v>
+        <v>790.7254788130856</v>
       </c>
       <c r="C25" t="n">
-        <v>287.3019221501834</v>
+        <v>619.6321063748021</v>
       </c>
       <c r="D25" t="n">
-        <v>127.8072774730934</v>
+        <v>619.6321063748021</v>
       </c>
       <c r="E25" t="n">
-        <v>127.8072774730934</v>
+        <v>458.7212912431216</v>
       </c>
       <c r="F25" t="n">
-        <v>127.8072774730934</v>
+        <v>294.0901653537129</v>
       </c>
       <c r="G25" t="n">
         <v>127.8072774730934</v>
@@ -6150,16 +6150,16 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>180.1220365202897</v>
+        <v>219.2955152060021</v>
       </c>
       <c r="L25" t="n">
-        <v>580.9980326375839</v>
+        <v>620.1715113232963</v>
       </c>
       <c r="M25" t="n">
-        <v>743.0032873056346</v>
+        <v>1058.078046724375</v>
       </c>
       <c r="N25" t="n">
-        <v>1168.950162743064</v>
+        <v>1484.024922161805</v>
       </c>
       <c r="O25" t="n">
         <v>1562.541583420358</v>
@@ -6171,28 +6171,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T25" t="n">
-        <v>1773.781973399777</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U25" t="n">
-        <v>1491.036598847383</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="V25" t="n">
-        <v>1217.150853786905</v>
+        <v>1349.003130161241</v>
       </c>
       <c r="W25" t="n">
-        <v>938.0811892957797</v>
+        <v>1069.933465670115</v>
       </c>
       <c r="X25" t="n">
-        <v>699.7373271554632</v>
+        <v>978.42518520713</v>
       </c>
       <c r="Y25" t="n">
-        <v>475.0016285442279</v>
+        <v>978.42518520713</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
       <c r="C26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
       <c r="D26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
       <c r="E26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
       <c r="F26" t="n">
-        <v>40.5566912611768</v>
+        <v>332.5745704366497</v>
       </c>
       <c r="G26" t="n">
-        <v>40.5566912611768</v>
+        <v>332.5745704366497</v>
       </c>
       <c r="H26" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I26" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K26" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L26" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M26" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O26" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P26" t="n">
         <v>1842.332036862795</v>
@@ -6259,19 +6259,19 @@
         <v>1728.938714348754</v>
       </c>
       <c r="U26" t="n">
-        <v>1595.828356666887</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="V26" t="n">
-        <v>1245.990802003368</v>
+        <v>1472.050773200715</v>
       </c>
       <c r="W26" t="n">
-        <v>862.2305011385367</v>
+        <v>1088.290472335883</v>
       </c>
       <c r="X26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
       <c r="Y26" t="n">
-        <v>461.5871033074893</v>
+        <v>687.6470745048357</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197114</v>
+        <v>686.3393707197113</v>
       </c>
       <c r="C27" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D27" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E27" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F27" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G27" t="n">
-        <v>100.1583670039692</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="I27" t="n">
-        <v>40.5566912611768</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906744</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>643.5682571633449</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>885.0788773513359</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1386.967931708399</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>1928.049576833459</v>
+        <v>1928.049576833458</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6338,7 +6338,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123213</v>
+        <v>1589.315040123212</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.044362991468</v>
+        <v>986.0443629914679</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.642403355298</v>
+        <v>826.6424033552979</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>433.4438756154752</v>
+        <v>463.5317758007857</v>
       </c>
       <c r="C28" t="n">
-        <v>433.4438756154752</v>
+        <v>292.4384033625022</v>
       </c>
       <c r="D28" t="n">
-        <v>433.4438756154752</v>
+        <v>292.4384033625022</v>
       </c>
       <c r="E28" t="n">
-        <v>433.4438756154752</v>
+        <v>292.4384033625022</v>
       </c>
       <c r="F28" t="n">
-        <v>268.8127497260665</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8127497260665</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="H28" t="n">
         <v>127.8072774730934</v>
@@ -6384,25 +6384,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>180.1220365202897</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L28" t="n">
-        <v>305.0967519045557</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M28" t="n">
-        <v>743.0032873056346</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N28" t="n">
-        <v>1168.950162743064</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O28" t="n">
-        <v>1562.541583420358</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463082</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
@@ -6426,10 +6426,10 @@
         <v>745.4178345814712</v>
       </c>
       <c r="X28" t="n">
-        <v>507.0739724411546</v>
+        <v>745.4178345814712</v>
       </c>
       <c r="Y28" t="n">
-        <v>433.4438756154752</v>
+        <v>651.2314821948301</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>454.8969067442801</v>
+        <v>1003.911979019947</v>
       </c>
       <c r="C29" t="n">
-        <v>454.8969067442801</v>
+        <v>1003.911979019947</v>
       </c>
       <c r="D29" t="n">
-        <v>454.8969067442801</v>
+        <v>1003.911979019947</v>
       </c>
       <c r="E29" t="n">
-        <v>40.5566912611768</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="F29" t="n">
-        <v>40.5566912611768</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G29" t="n">
         <v>40.5566912611768</v>
@@ -6463,22 +6463,22 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P29" t="n">
         <v>1842.332036862795</v>
@@ -6490,25 +6490,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T29" t="n">
-        <v>1728.938714348754</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U29" t="n">
-        <v>1472.050773200715</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V29" t="n">
-        <v>1122.213218537195</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W29" t="n">
-        <v>855.5403045753276</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="X29" t="n">
-        <v>454.8969067442801</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="Y29" t="n">
-        <v>454.8969067442801</v>
+        <v>1414.133158684437</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G30" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>40.5566912611768</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J30" t="n">
-        <v>96.56231902906744</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>223.9375613431321</v>
+        <v>804.4505801426267</v>
       </c>
       <c r="L30" t="n">
-        <v>413.9699228834544</v>
+        <v>994.482941682949</v>
       </c>
       <c r="M30" t="n">
-        <v>643.5682571633449</v>
+        <v>1224.08127596284</v>
       </c>
       <c r="N30" t="n">
-        <v>885.0788773513359</v>
+        <v>1465.591896150831</v>
       </c>
       <c r="O30" t="n">
-        <v>1386.967931708399</v>
+        <v>1677.527913637898</v>
       </c>
       <c r="P30" t="n">
-        <v>1549.235378522597</v>
+        <v>1839.795360452096</v>
       </c>
       <c r="Q30" t="n">
-        <v>1928.049576833458</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6575,7 +6575,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
         <v>1375.603513116246</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.0739724411546</v>
+        <v>696.6866493976395</v>
       </c>
       <c r="C31" t="n">
-        <v>335.9806000028711</v>
+        <v>525.593276959356</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4675063928573</v>
+        <v>366.0986322822661</v>
       </c>
       <c r="E31" t="n">
-        <v>40.5566912611768</v>
+        <v>205.1878171505855</v>
       </c>
       <c r="F31" t="n">
         <v>40.5566912611768</v>
@@ -6624,19 +6624,19 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L31" t="n">
-        <v>580.9980326375839</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M31" t="n">
-        <v>1018.904568038663</v>
+        <v>1225.184761624377</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.851443476092</v>
+        <v>1319.097335614221</v>
       </c>
       <c r="O31" t="n">
-        <v>1562.541583420358</v>
+        <v>1712.688756291515</v>
       </c>
       <c r="P31" t="n">
         <v>1882.903536463082</v>
@@ -6645,28 +6645,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.118618685469</v>
+        <v>1720.087139895681</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.373244133075</v>
+        <v>1437.341765343288</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.487499072597</v>
+        <v>1163.45602028281</v>
       </c>
       <c r="W31" t="n">
-        <v>745.4178345814712</v>
+        <v>884.3863557916839</v>
       </c>
       <c r="X31" t="n">
-        <v>507.0739724411546</v>
+        <v>884.3863557916839</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.0739724411546</v>
+        <v>884.3863557916839</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>450.6812819479067</v>
+        <v>1283.589802437387</v>
       </c>
       <c r="C32" t="n">
-        <v>40.5566912611768</v>
+        <v>1283.589802437387</v>
       </c>
       <c r="D32" t="n">
-        <v>40.5566912611768</v>
+        <v>879.1258725304473</v>
       </c>
       <c r="E32" t="n">
-        <v>40.5566912611768</v>
+        <v>464.785657047344</v>
       </c>
       <c r="F32" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="G32" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="H32" t="n">
-        <v>40.5566912611768</v>
+        <v>43.75524500103157</v>
       </c>
       <c r="I32" t="n">
         <v>40.5566912611768</v>
@@ -6703,7 +6703,7 @@
         <v>147.3860862243982</v>
       </c>
       <c r="K32" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L32" t="n">
         <v>803.0823624768997</v>
@@ -6730,22 +6730,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U32" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V32" t="n">
-        <v>1379.101159685235</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W32" t="n">
-        <v>995.3408588204031</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X32" t="n">
-        <v>594.6974609893557</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y32" t="n">
-        <v>450.6812819479067</v>
+        <v>1693.810982101876</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>40.5566912611768</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906744</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M33" t="n">
-        <v>915.8589772405173</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N33" t="n">
-        <v>1157.369597428508</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O33" t="n">
-        <v>1659.258651785571</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1821.526098599769</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833458</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282.3382738299193</v>
+        <v>1091.225595743149</v>
       </c>
       <c r="C34" t="n">
-        <v>282.3382738299193</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="D34" t="n">
-        <v>282.3382738299193</v>
+        <v>760.6375786277752</v>
       </c>
       <c r="E34" t="n">
-        <v>282.3382738299193</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="F34" t="n">
-        <v>117.7071479405105</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G34" t="n">
-        <v>117.7071479405105</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H34" t="n">
-        <v>117.7071479405105</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I34" t="n">
         <v>40.5566912611768</v>
@@ -6864,19 +6864,19 @@
         <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>787.2782262232981</v>
+        <v>746.4454715291333</v>
       </c>
       <c r="M34" t="n">
-        <v>880.2184121100915</v>
+        <v>1184.352006930212</v>
       </c>
       <c r="N34" t="n">
-        <v>1306.165287547521</v>
+        <v>1610.298882367642</v>
       </c>
       <c r="O34" t="n">
-        <v>1562.541583420358</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P34" t="n">
-        <v>1882.903536463082</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
@@ -6894,16 +6894,16 @@
         <v>1298.373244133075</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.487499072597</v>
+        <v>1091.225595743149</v>
       </c>
       <c r="W34" t="n">
-        <v>745.4178345814712</v>
+        <v>1091.225595743149</v>
       </c>
       <c r="X34" t="n">
-        <v>507.0739724411546</v>
+        <v>1091.225595743149</v>
       </c>
       <c r="Y34" t="n">
-        <v>282.3382738299193</v>
+        <v>1091.225595743149</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.2796026898599</v>
+        <v>693.256239037357</v>
       </c>
       <c r="C35" t="n">
-        <v>139.2796026898599</v>
+        <v>693.256239037357</v>
       </c>
       <c r="D35" t="n">
-        <v>35.74099050576838</v>
+        <v>693.256239037357</v>
       </c>
       <c r="E35" t="n">
-        <v>35.74099050576838</v>
+        <v>693.256239037357</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576838</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576838</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6970,19 +6970,19 @@
         <v>1700.918407900826</v>
       </c>
       <c r="U35" t="n">
-        <v>1700.918407900826</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="V35" t="n">
-        <v>1351.080853237307</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="W35" t="n">
-        <v>1351.080853237307</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="X35" t="n">
-        <v>950.4374554062592</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="Y35" t="n">
-        <v>549.5007823543493</v>
+        <v>693.256239037357</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.5543329492901</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C36" t="n">
-        <v>311.5592616982358</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D36" t="n">
-        <v>262.0698853723533</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E36" t="n">
-        <v>141.5770693646812</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F36" t="n">
-        <v>141.5770693646812</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J36" t="n">
-        <v>271.9976205665608</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>399.3728628806255</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>841.6676203895091</v>
+        <v>753.6979039125275</v>
       </c>
       <c r="M36" t="n">
-        <v>1071.2659546694</v>
+        <v>983.2962381924181</v>
       </c>
       <c r="N36" t="n">
-        <v>1312.776574857391</v>
+        <v>1224.806858380409</v>
       </c>
       <c r="O36" t="n">
-        <v>1524.712592344458</v>
+        <v>1436.742875867476</v>
       </c>
       <c r="P36" t="n">
-        <v>1686.980039158656</v>
+        <v>1599.010322681674</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821539</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210468</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848768</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>343.0293506393608</v>
+        <v>413.0373128331456</v>
       </c>
       <c r="C37" t="n">
-        <v>343.0293506393608</v>
+        <v>241.9439403948621</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0293506393608</v>
+        <v>82.44929571777215</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0293506393608</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0293506393608</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G37" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542368</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
@@ -7104,43 +7104,43 @@
         <v>511.1809682508391</v>
       </c>
       <c r="M37" t="n">
-        <v>604.1211541376325</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N37" t="n">
-        <v>1030.068029575062</v>
+        <v>1375.034379089348</v>
       </c>
       <c r="O37" t="n">
-        <v>1423.659450252356</v>
+        <v>1453.551040347901</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.333580915047</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U37" t="n">
-        <v>1322.028328725326</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="V37" t="n">
-        <v>1048.142583664848</v>
+        <v>825.4727178384253</v>
       </c>
       <c r="W37" t="n">
-        <v>769.0729191737219</v>
+        <v>825.4727178384253</v>
       </c>
       <c r="X37" t="n">
-        <v>530.7290570334052</v>
+        <v>825.4727178384253</v>
       </c>
       <c r="Y37" t="n">
-        <v>530.7290570334052</v>
+        <v>600.73701922719</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>860.2057966756015</v>
+        <v>450.0812059888717</v>
       </c>
       <c r="C38" t="n">
         <v>450.0812059888717</v>
@@ -7174,16 +7174,16 @@
         <v>35.74099050576837</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689895</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446585</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152973</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7201,25 +7201,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T38" t="n">
-        <v>1574.284793965925</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U38" t="n">
-        <v>1574.284793965925</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="V38" t="n">
-        <v>1574.284793965925</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="W38" t="n">
-        <v>1190.524493101094</v>
+        <v>1260.945783484409</v>
       </c>
       <c r="X38" t="n">
-        <v>1190.524493101094</v>
+        <v>860.3023856533612</v>
       </c>
       <c r="Y38" t="n">
-        <v>860.2057966756015</v>
+        <v>860.3023856533612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>621.9219942215105</v>
+        <v>445.5543329492899</v>
       </c>
       <c r="C39" t="n">
-        <v>487.9269229704562</v>
+        <v>311.5592616982356</v>
       </c>
       <c r="D39" t="n">
-        <v>371.0297651898487</v>
+        <v>194.662103917628</v>
       </c>
       <c r="E39" t="n">
-        <v>250.5369491821766</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F39" t="n">
-        <v>141.5770693646812</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G39" t="n">
         <v>35.74099050576837</v>
@@ -7250,31 +7250,31 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I39" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J39" t="n">
-        <v>91.74661827365901</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K39" t="n">
-        <v>219.1218605877237</v>
+        <v>237.7286580436576</v>
       </c>
       <c r="L39" t="n">
-        <v>409.1542221280459</v>
+        <v>427.7610195839799</v>
       </c>
       <c r="M39" t="n">
-        <v>638.7525564079365</v>
+        <v>657.3593538638704</v>
       </c>
       <c r="N39" t="n">
-        <v>1081.04731391682</v>
+        <v>898.8699740518614</v>
       </c>
       <c r="O39" t="n">
-        <v>1523.342071425704</v>
+        <v>1110.805991538929</v>
       </c>
       <c r="P39" t="n">
-        <v>1685.609518239901</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.863734621264</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
@@ -7292,13 +7292,13 @@
         <v>1134.818475345825</v>
       </c>
       <c r="W39" t="n">
-        <v>921.6269864932672</v>
+        <v>921.5853070821537</v>
       </c>
       <c r="X39" t="n">
-        <v>921.6269864932672</v>
+        <v>745.2593252210465</v>
       </c>
       <c r="Y39" t="n">
-        <v>762.2250268570972</v>
+        <v>585.8573655848766</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.6118955017613</v>
+        <v>1086.40989498774</v>
       </c>
       <c r="C40" t="n">
-        <v>361.5185230634778</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0238783863878</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0238783863878</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0238783863878</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I40" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J40" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K40" t="n">
-        <v>381.5865293505955</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>782.4625254678897</v>
+        <v>409.2780636484198</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4027113546831</v>
+        <v>502.2182495352132</v>
       </c>
       <c r="N40" t="n">
-        <v>1243.239884391383</v>
+        <v>928.1651249726427</v>
       </c>
       <c r="O40" t="n">
         <v>1321.756545649937</v>
@@ -7356,28 +7356,28 @@
         <v>1787.049525288419</v>
       </c>
       <c r="R40" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S40" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T40" t="n">
-        <v>1575.748442655586</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U40" t="n">
-        <v>1293.003068103193</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V40" t="n">
-        <v>1183.391162647358</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.391162647358</v>
+        <v>1086.40989498774</v>
       </c>
       <c r="X40" t="n">
-        <v>945.047300507041</v>
+        <v>1086.40989498774</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3116018958057</v>
+        <v>1086.40989498774</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1530.161584140379</v>
+        <v>850.3295110994377</v>
       </c>
       <c r="C41" t="n">
-        <v>1120.036993453649</v>
+        <v>440.2049204127078</v>
       </c>
       <c r="D41" t="n">
-        <v>1120.036993453649</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="E41" t="n">
-        <v>705.696777970546</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="F41" t="n">
-        <v>284.6663659242336</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G41" t="n">
         <v>35.74099050576837</v>
@@ -7417,7 +7417,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L41" t="n">
-        <v>562.2973247064783</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M41" t="n">
         <v>841.1329596152972</v>
@@ -7441,22 +7441,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288419</v>
+        <v>1601.103738814867</v>
       </c>
       <c r="U41" t="n">
-        <v>1530.161584140379</v>
+        <v>1601.103738814867</v>
       </c>
       <c r="V41" t="n">
-        <v>1530.161584140379</v>
+        <v>1251.266184151348</v>
       </c>
       <c r="W41" t="n">
-        <v>1530.161584140379</v>
+        <v>1251.266184151348</v>
       </c>
       <c r="X41" t="n">
-        <v>1530.161584140379</v>
+        <v>1251.266184151348</v>
       </c>
       <c r="Y41" t="n">
-        <v>1530.161584140379</v>
+        <v>850.3295110994377</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.9219942215105</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C42" t="n">
-        <v>487.9269229704562</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D42" t="n">
-        <v>371.0297651898487</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E42" t="n">
-        <v>250.5369491821766</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F42" t="n">
-        <v>141.5770693646812</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>35.74099050576837</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H42" t="n">
         <v>35.74099050576837</v>
@@ -7490,22 +7490,22 @@
         <v>54.34778796170227</v>
       </c>
       <c r="J42" t="n">
-        <v>110.3534157295929</v>
+        <v>209.340501340303</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7286580436576</v>
+        <v>651.6352588491866</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0234155525412</v>
+        <v>841.6676203895089</v>
       </c>
       <c r="M42" t="n">
-        <v>909.6217498324318</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N42" t="n">
-        <v>1151.132370020423</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O42" t="n">
-        <v>1363.06838750749</v>
+        <v>1524.712592344458</v>
       </c>
       <c r="P42" t="n">
         <v>1686.980039158656</v>
@@ -7529,13 +7529,13 @@
         <v>1134.818475345825</v>
       </c>
       <c r="W42" t="n">
-        <v>921.5853070821537</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="X42" t="n">
-        <v>921.5853070821537</v>
+        <v>981.2286622360594</v>
       </c>
       <c r="Y42" t="n">
-        <v>762.2250268570972</v>
+        <v>821.8267025998895</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.8543186923301</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="C43" t="n">
-        <v>252.8543186923301</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="D43" t="n">
-        <v>93.3596740152401</v>
+        <v>589.5389899917473</v>
       </c>
       <c r="E43" t="n">
-        <v>93.3596740152401</v>
+        <v>428.6281748600668</v>
       </c>
       <c r="F43" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576837</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576837</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>63.30245035214135</v>
       </c>
       <c r="K43" t="n">
-        <v>381.5865293505955</v>
+        <v>121.7439796702626</v>
       </c>
       <c r="L43" t="n">
-        <v>782.4625254678897</v>
+        <v>522.6199757875568</v>
       </c>
       <c r="M43" t="n">
-        <v>1220.369060868969</v>
+        <v>960.5265111886357</v>
       </c>
       <c r="N43" t="n">
-        <v>1504.137367864501</v>
+        <v>1054.43908517848</v>
       </c>
       <c r="O43" t="n">
-        <v>1582.654029123055</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P43" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
@@ -7596,25 +7596,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S43" t="n">
-        <v>1787.049525288419</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T43" t="n">
-        <v>1551.634663547879</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U43" t="n">
-        <v>1268.889288995486</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V43" t="n">
-        <v>995.0035439350077</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W43" t="n">
-        <v>715.933879443882</v>
+        <v>829.1484278996934</v>
       </c>
       <c r="X43" t="n">
-        <v>477.5900173035654</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="Y43" t="n">
-        <v>252.8543186923301</v>
+        <v>590.8045657593768</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1488.153676578332</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="C44" t="n">
-        <v>1078.029085891602</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="D44" t="n">
-        <v>1078.029085891602</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="E44" t="n">
-        <v>1078.029085891602</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="F44" t="n">
-        <v>656.9986738452899</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G44" t="n">
         <v>324.5603159413865</v>
@@ -7681,19 +7681,19 @@
         <v>1488.153676578332</v>
       </c>
       <c r="U44" t="n">
-        <v>1488.153676578332</v>
+        <v>1231.265735430293</v>
       </c>
       <c r="V44" t="n">
-        <v>1488.153676578332</v>
+        <v>881.4281807667735</v>
       </c>
       <c r="W44" t="n">
-        <v>1488.153676578332</v>
+        <v>497.6678799019421</v>
       </c>
       <c r="X44" t="n">
-        <v>1488.153676578332</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="Y44" t="n">
-        <v>1488.153676578332</v>
+        <v>324.5603159413865</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583156</v>
       </c>
       <c r="C45" t="n">
-        <v>547.5285987132485</v>
+        <v>398.1135994072613</v>
       </c>
       <c r="D45" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266538</v>
       </c>
       <c r="E45" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189817</v>
       </c>
       <c r="F45" t="n">
-        <v>201.1787451074734</v>
+        <v>160.7236256189817</v>
       </c>
       <c r="G45" t="n">
         <v>95.34266624856059</v>
@@ -7724,55 +7724,55 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>841.6676203895089</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
-        <v>1071.265954669399</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N45" t="n">
-        <v>1312.77657485739</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R45" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U45" t="n">
-        <v>1444.196306732218</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V45" t="n">
-        <v>1230.484779725251</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W45" t="n">
-        <v>1017.25161146158</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X45" t="n">
-        <v>840.9256296004728</v>
+        <v>831.8136629300723</v>
       </c>
       <c r="Y45" t="n">
-        <v>681.5236699643028</v>
+        <v>672.4117032939023</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.6424727522082</v>
+        <v>1086.40989498774</v>
       </c>
       <c r="C46" t="n">
-        <v>423.491693647748</v>
+        <v>915.3165225494567</v>
       </c>
       <c r="D46" t="n">
-        <v>263.9970489706581</v>
+        <v>755.8218778723667</v>
       </c>
       <c r="E46" t="n">
-        <v>263.9970489706581</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F46" t="n">
-        <v>263.9970489706581</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G46" t="n">
         <v>263.9970489706581</v>
@@ -7809,22 +7809,22 @@
         <v>116.86480644676</v>
       </c>
       <c r="K46" t="n">
-        <v>381.5865293505955</v>
+        <v>175.3063357648813</v>
       </c>
       <c r="L46" t="n">
-        <v>782.4625254678897</v>
+        <v>262.2032206471523</v>
       </c>
       <c r="M46" t="n">
-        <v>1220.369060868969</v>
+        <v>700.1097560482312</v>
       </c>
       <c r="N46" t="n">
-        <v>1314.281634858813</v>
+        <v>1126.056631485661</v>
       </c>
       <c r="O46" t="n">
-        <v>1582.654029123055</v>
+        <v>1519.648052162955</v>
       </c>
       <c r="P46" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q46" t="n">
         <v>1787.049525288419</v>
@@ -7842,16 +7842,16 @@
         <v>1340.333580915047</v>
       </c>
       <c r="V46" t="n">
-        <v>1066.447835854569</v>
+        <v>1311.145593598976</v>
       </c>
       <c r="W46" t="n">
-        <v>787.3781713634435</v>
+        <v>1311.145593598976</v>
       </c>
       <c r="X46" t="n">
-        <v>787.3781713634435</v>
+        <v>1311.145593598976</v>
       </c>
       <c r="Y46" t="n">
-        <v>562.6424727522082</v>
+        <v>1086.40989498774</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>79.26551225650758</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>190.7525194816471</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>357.6167082096172</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>166.7980133473036</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>311.0492165645763</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>96.54358010781002</v>
       </c>
       <c r="K15" t="n">
-        <v>171.957774576663</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>232.6855959816328</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>160.600584717878</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>221.9669930315496</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.8942200099483</v>
+        <v>171.9577745766634</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>332.3855972507336</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>311.0492165645761</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>190.7525194816464</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>329.2291760894428</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>120.3413385717445</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.55254497560207</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>39.30110188243992</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>343.0521288311768</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>39.56917038960846</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>69.76269573864366</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>293.4949312419183</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>38.4624550525201</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>293.4949312419182</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10272,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10281,13 +10281,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>39.56917038960847</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>111.8690006080417</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="L32" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.3120993225333</v>
+        <v>321.4523407766944</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>275.9054106473317</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>179.6561965800844</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>182.0717194877796</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8105009783449</v>
+        <v>83.09947510496403</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,19 +10752,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6005847178775</v>
+        <v>257.9565141222128</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>202.8122599200936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>232.6855959816326</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>60.47076735152348</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>357.6167082096171</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38436456439811</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>214.2183905379837</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>276.6915141887434</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>99.9869551623334</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>318.100520398807</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8105009783448</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>163.2769745827956</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>11.55455306739159</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,16 +11229,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>191.7734676825137</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>190.7525194816462</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>191.7734676825137</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>191.1918557231688</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>195.5709974300153</v>
+        <v>12.71271513770034</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.5056876845219</v>
@@ -23278,7 +23278,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.91519032756226</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>41.94886412095421</v>
       </c>
       <c r="H12" t="n">
         <v>59.00565898536429</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>90.49228754220461</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>234.1531631407555</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5056876845219</v>
+        <v>311.0360403539825</v>
       </c>
       <c r="H14" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>99.90305745260287</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>9.54403772694306</v>
+        <v>22.50880706382753</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6200590018132</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.13621100497498</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>58.34353685506147</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>402.5056876845219</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>42.85981404075823</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>208.9668922797685</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>43.14313124260283</v>
       </c>
       <c r="Y18" t="n">
-        <v>128.8319255745387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.6290461618061</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.6200590018132</v>
@@ -23910,7 +23910,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>189.719201359029</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>385.1088076175839</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23989,7 +23989,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>88.88648289294527</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>58.87579845669624</v>
       </c>
       <c r="H21" t="n">
         <v>59.00565898536429</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>174.6039846594982</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5609735549773</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4130387913672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24223,7 +24223,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>3.166568202456219</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>143.4507380182094</v>
       </c>
       <c r="U23" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>254.3512890703564</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.5954175304433</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>190.7367211671654</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>145.3672258605584</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>65.29832889834512</v>
       </c>
       <c r="G26" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H26" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>122.5398076315113</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24618,7 +24618,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5945457677004</v>
+        <v>129.2438527623482</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24688,13 +24688,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>275.8008740574608</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>285.9311321812619</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>115.9165130339342</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.73173555640545</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6200590018132</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>96.22628202722308</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.5056876845219</v>
@@ -24937,7 +24937,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>254.3512890703563</v>
+        <v>151.5137673877136</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.999128237257096</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>66.07071570384636</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>297.9160645456195</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>54.97771226329479</v>
       </c>
       <c r="G35" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U35" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>66.73370364017774</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
         <v>59.00565898536429</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>69.82626658917451</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>113.06048482048</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
         <v>86.37808034979749</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.7957211390452</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>198.6688614204893</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.9117968601534</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25478,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>69.82626658917468</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
         <v>59.00565898536429</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04126261700233158</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>162.6311012085965</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>254.6888524171663</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>156.0695660202414</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
@@ -25681,13 +25681,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>26.5507554004524</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>22.5088070638283</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04126261700236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,22 +25791,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>156.6467782203658</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.9423179561376</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,10 +25876,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>73.39171335965756</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>225.260475531787</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>40.05056829360676</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>94.70964133563218</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>31.62316740048513</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>242.2507801669625</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390121.7270921627</v>
+        <v>390121.7270921628</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390121.7270921626</v>
+        <v>390121.7270921628</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390121.7270921626</v>
+        <v>390121.7270921627</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>439888.5183389453</v>
+        <v>439888.5183389452</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>439888.5183389451</v>
+        <v>439888.5183389453</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390121.7270921626</v>
+        <v>390121.7270921625</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390121.7270921627</v>
+        <v>390121.7270921625</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390121.7270921626</v>
+        <v>390121.7270921625</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>486007.2734085558</v>
       </c>
       <c r="C2" t="n">
-        <v>486007.2734085558</v>
+        <v>486007.2734085559</v>
       </c>
       <c r="D2" t="n">
-        <v>486007.2734085558</v>
+        <v>486007.2734085559</v>
       </c>
       <c r="E2" t="n">
         <v>276128.1558331049</v>
@@ -26328,16 +26328,16 @@
         <v>276128.1558331049</v>
       </c>
       <c r="G2" t="n">
-        <v>276128.1558331049</v>
+        <v>276128.1558331048</v>
       </c>
       <c r="H2" t="n">
         <v>276128.1558331048</v>
       </c>
       <c r="I2" t="n">
+        <v>301708.4118122172</v>
+      </c>
+      <c r="J2" t="n">
         <v>301708.4118122173</v>
-      </c>
-      <c r="J2" t="n">
-        <v>301708.4118122174</v>
       </c>
       <c r="K2" t="n">
         <v>301708.4118122173</v>
@@ -26346,13 +26346,13 @@
         <v>301708.4118122173</v>
       </c>
       <c r="M2" t="n">
-        <v>276128.1558331049</v>
+        <v>276128.1558331048</v>
       </c>
       <c r="N2" t="n">
         <v>276128.1558331049</v>
       </c>
       <c r="O2" t="n">
-        <v>276128.1558331049</v>
+        <v>276128.1558331047</v>
       </c>
       <c r="P2" t="n">
         <v>276128.1558331049</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723705</v>
+        <v>16007.44950723702</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.8238368585</v>
+        <v>96333.82383685885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>358147.6449191825</v>
       </c>
       <c r="E4" t="n">
-        <v>22338.2633238993</v>
+        <v>22338.26332389929</v>
       </c>
       <c r="F4" t="n">
         <v>22338.26332389929</v>
       </c>
       <c r="G4" t="n">
-        <v>22338.26332389928</v>
+        <v>22338.26332389929</v>
       </c>
       <c r="H4" t="n">
-        <v>22338.26332389928</v>
+        <v>22338.26332389929</v>
       </c>
       <c r="I4" t="n">
-        <v>38050.24587611406</v>
+        <v>38050.24587611405</v>
       </c>
       <c r="J4" t="n">
         <v>38050.24587611405</v>
@@ -26447,10 +26447,10 @@
         <v>38050.24587611405</v>
       </c>
       <c r="L4" t="n">
-        <v>38050.24587611406</v>
+        <v>38050.24587611404</v>
       </c>
       <c r="M4" t="n">
-        <v>22338.26332389927</v>
+        <v>22338.26332389926</v>
       </c>
       <c r="N4" t="n">
         <v>22338.26332389927</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886575</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,7 +26502,7 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="N5" t="n">
         <v>38742.42450886573</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94232.02848937328</v>
+        <v>94223.22880374391</v>
       </c>
       <c r="C6" t="n">
-        <v>94232.02848937328</v>
+        <v>94223.22880374397</v>
       </c>
       <c r="D6" t="n">
-        <v>94232.02848937333</v>
+        <v>94223.22880374397</v>
       </c>
       <c r="E6" t="n">
-        <v>-345080.8879627044</v>
+        <v>-345789.2847069186</v>
       </c>
       <c r="F6" t="n">
-        <v>215047.4680003399</v>
+        <v>214339.0712561256</v>
       </c>
       <c r="G6" t="n">
-        <v>215047.4680003398</v>
+        <v>214339.0712561255</v>
       </c>
       <c r="H6" t="n">
-        <v>215047.4680003398</v>
+        <v>214339.0712561255</v>
       </c>
       <c r="I6" t="n">
-        <v>205248.3593458901</v>
+        <v>204625.2301216061</v>
       </c>
       <c r="J6" t="n">
-        <v>221255.8088531272</v>
+        <v>220632.6796288433</v>
       </c>
       <c r="K6" t="n">
-        <v>221255.8088531271</v>
+        <v>220632.6796288433</v>
       </c>
       <c r="L6" t="n">
-        <v>221255.8088531271</v>
+        <v>220632.6796288432</v>
       </c>
       <c r="M6" t="n">
-        <v>118713.6441634814</v>
+        <v>118005.2474192667</v>
       </c>
       <c r="N6" t="n">
-        <v>215047.4680003399</v>
+        <v>214339.0712561256</v>
       </c>
       <c r="O6" t="n">
-        <v>215047.4680003399</v>
+        <v>214339.0712561255</v>
       </c>
       <c r="P6" t="n">
-        <v>215047.4680003399</v>
+        <v>214339.0712561256</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>446.7623813221048</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221047</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="I4" t="n">
         <v>506.95864076471</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260534</v>
+        <v>60.1962594426052</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218794983</v>
+        <v>386.5661218794997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34383,13 +34383,13 @@
         <v>381.0093406442477</v>
       </c>
       <c r="O44" t="n">
-        <v>359.7763162174687</v>
+        <v>359.7763162174684</v>
       </c>
       <c r="P44" t="n">
         <v>307.0607621723544</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.5898445322262</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R44" t="n">
         <v>134.1323917685636</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>302.7010421641655</v>
+        <v>135.8368534361951</v>
       </c>
       <c r="K12" t="n">
         <v>128.6618609232977</v>
@@ -35503,13 +35503,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
-        <v>404.8293048221191</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248757</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="R12" t="n">
         <v>11.934615907475</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M13" t="n">
-        <v>260.6769889905293</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N13" t="n">
         <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>397.5670915932262</v>
+        <v>390.3589754116001</v>
       </c>
       <c r="P13" t="n">
         <v>323.5979323663882</v>
@@ -35725,10 +35725,10 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>302.7010421641655</v>
+        <v>153.1149212874975</v>
       </c>
       <c r="K15" t="n">
-        <v>300.6196354999607</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L15" t="n">
         <v>191.9518803437599</v>
@@ -35740,7 +35740,7 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O15" t="n">
-        <v>214.076785340472</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="P15" t="n">
         <v>163.9065119335332</v>
@@ -35749,7 +35749,7 @@
         <v>89.14567311248757</v>
       </c>
       <c r="R15" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K16" t="n">
-        <v>267.3956797008439</v>
+        <v>219.6324325139601</v>
       </c>
       <c r="L16" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8459686747752</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N16" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O16" t="n">
         <v>397.5670915932262</v>
@@ -35886,7 +35886,7 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K17" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289592</v>
       </c>
       <c r="L17" t="n">
         <v>241.4830999614339</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
         <v>302.7010421641655</v>
@@ -35983,10 +35983,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.0398931224359</v>
+        <v>261.1034476891509</v>
       </c>
       <c r="R18" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>442.3298337384635</v>
+        <v>426.2645728939593</v>
       </c>
       <c r="N19" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O19" t="n">
-        <v>390.3589754115998</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q20" t="n">
-        <v>140.5560401330746</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R20" t="n">
         <v>46.82024895384008</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>302.7010421641655</v>
+        <v>56.57134117968751</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L21" t="n">
-        <v>382.7043998254063</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
         <v>231.9175093736268</v>
@@ -36220,10 +36220,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>418.3748492019304</v>
       </c>
       <c r="R21" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K22" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L22" t="n">
-        <v>208.1159697659577</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M22" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N22" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O22" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P22" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.8455216059803</v>
+        <v>56.39806658158236</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
@@ -36378,7 +36378,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.9089058048045</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
         <v>46.82024895384008</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
-        <v>128.6618609232977</v>
+        <v>450.1142016999921</v>
       </c>
       <c r="L24" t="n">
         <v>191.9518803437599</v>
@@ -36448,19 +36448,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N24" t="n">
-        <v>283.251223284451</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O24" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P24" t="n">
-        <v>506.95864076471</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
         <v>89.14567311248757</v>
       </c>
       <c r="R24" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
-        <v>59.03184779608208</v>
+        <v>98.60101818569053</v>
       </c>
       <c r="L25" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M25" t="n">
-        <v>163.6416713818693</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N25" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P25" t="n">
         <v>323.5979323663882</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36612,7 +36612,7 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P26" t="n">
-        <v>451.7642645632003</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q26" t="n">
         <v>140.5560401330744</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232977</v>
@@ -36688,13 +36688,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
-        <v>457.4014431754516</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248757</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L28" t="n">
-        <v>126.2370862467333</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
         <v>442.3298337384635</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>323.5979323663882</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289586</v>
@@ -36849,7 +36849,7 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P29" t="n">
-        <v>451.7642645632003</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
         <v>140.5560401330744</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
-        <v>128.6618609232977</v>
+        <v>450.1142016999921</v>
       </c>
       <c r="L30" t="n">
         <v>191.9518803437599</v>
@@ -36925,13 +36925,13 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P30" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>382.6406043544058</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R30" t="n">
         <v>100.7929153791732</v>
@@ -36992,7 +36992,7 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
@@ -37001,13 +37001,13 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N31" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O31" t="n">
-        <v>118.8789292366322</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>323.5979323663882</v>
+        <v>171.9341213854218</v>
       </c>
       <c r="Q31" t="n">
         <v>146.3949763593511</v>
@@ -37071,10 +37071,10 @@
         <v>107.9084797608297</v>
       </c>
       <c r="K32" t="n">
-        <v>182.4835053289586</v>
+        <v>420.8363710006887</v>
       </c>
       <c r="L32" t="n">
-        <v>479.8359656331641</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M32" t="n">
         <v>281.6521564735544</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
@@ -37156,22 +37156,22 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M33" t="n">
-        <v>506.95864076471</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
         <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.4577724350209</v>
+        <v>410.598013889182</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,22 +37232,22 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
-        <v>404.9252486033274</v>
+        <v>363.6800418415449</v>
       </c>
       <c r="M34" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N34" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O34" t="n">
-        <v>258.9659554271082</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P34" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5560401330746</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895383996</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
-        <v>238.6430606674671</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L36" t="n">
-        <v>446.7623813221047</v>
+        <v>275.0513554487239</v>
       </c>
       <c r="M36" t="n">
         <v>231.9175093736268</v>
@@ -37408,7 +37408,7 @@
         <v>89.14567311248757</v>
       </c>
       <c r="R36" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,19 +37472,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M37" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N37" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P37" t="n">
-        <v>220.6657054952576</v>
+        <v>318.0216348995929</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608294</v>
       </c>
       <c r="K38" t="n">
         <v>182.4835053289586</v>
@@ -37563,7 +37563,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q38" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R38" t="n">
         <v>46.82024895384008</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
         <v>56.57134117968751</v>
@@ -37633,19 +37633,19 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N39" t="n">
+        <v>243.9501214020111</v>
+      </c>
+      <c r="O39" t="n">
+        <v>214.076785340472</v>
+      </c>
+      <c r="P39" t="n">
+        <v>224.3772792850567</v>
+      </c>
+      <c r="Q39" t="n">
         <v>446.7623813221047</v>
       </c>
-      <c r="O39" t="n">
-        <v>446.7623813221047</v>
-      </c>
-      <c r="P39" t="n">
-        <v>163.9065119335332</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>89.14567311248757</v>
-      </c>
       <c r="R39" t="n">
-        <v>13.31898047187311</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K40" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>301.9930217321968</v>
       </c>
       <c r="M40" t="n">
         <v>93.87897564322566</v>
       </c>
       <c r="N40" t="n">
-        <v>371.5527000370707</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
         <v>323.5979323663882</v>
@@ -37858,13 +37858,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
-        <v>56.57134117968751</v>
+        <v>156.5582963420209</v>
       </c>
       <c r="K42" t="n">
-        <v>128.6618609232977</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="L42" t="n">
-        <v>446.7623813221047</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M42" t="n">
         <v>231.9175093736268</v>
@@ -37876,7 +37876,7 @@
         <v>214.076785340472</v>
       </c>
       <c r="P42" t="n">
-        <v>327.1834865163289</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
         <v>89.14567311248757</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>27.83985843067978</v>
       </c>
       <c r="K43" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
         <v>404.9252486033274</v>
@@ -37949,16 +37949,16 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N43" t="n">
-        <v>286.634653530841</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O43" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O44" t="n">
-        <v>266.5865405916856</v>
+        <v>266.5865405916853</v>
       </c>
       <c r="P44" t="n">
         <v>213.4113988914702</v>
       </c>
       <c r="Q44" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R44" t="n">
         <v>46.82024895384008</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
@@ -38101,7 +38101,7 @@
         <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
-        <v>382.704399825406</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
         <v>231.9175093736268</v>
@@ -38116,10 +38116,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R45" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L46" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M46" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N46" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
-        <v>271.0832265295375</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>60.06512077738009</v>
+        <v>251.2569765005489</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
